--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5652"/>
+    <workbookView xWindow="0" yWindow="2448" windowWidth="18708" windowHeight="8256"/>
   </bookViews>
   <sheets>
-    <sheet name="AddCustomerTest" sheetId="2" r:id="rId1"/>
-    <sheet name="OpenAccountTest" sheetId="3" r:id="rId2"/>
+    <sheet name="Login" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:S27"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,39 +20,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>firstName</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>Pincode</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>swapnil</t>
   </si>
   <si>
-    <t>customer</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>Rupee</t>
-  </si>
-  <si>
-    <t>swapnil supekar</t>
-  </si>
-  <si>
-    <t>alertText</t>
-  </si>
-  <si>
-    <t>Customer added successfully</t>
-  </si>
-  <si>
     <t>supekar</t>
+  </si>
+  <si>
+    <t>ram</t>
+  </si>
+  <si>
+    <t>joshi</t>
+  </si>
+  <si>
+    <t>sumit</t>
+  </si>
+  <si>
+    <t>ragvan</t>
+  </si>
+  <si>
+    <t>suvarna</t>
   </si>
 </sst>
 </file>
@@ -396,7 +384,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -404,75 +392,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>8</v>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>414001</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
